--- a/va_facility_data_2025-02-20/Schuylkill County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Schuylkill%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Schuylkill County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Schuylkill%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3d186dfd308349d899687f9acfa6b082"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76a1c32c291a484680c19525c209d510"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3ee14cce87343cab284553519420581"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5d62f69d416345f1a2d27343ed039ce4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R112e7ef06a17437f936c026c0612004b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R56fe1bc7700e4b25988b5f726bd827bc"/>
   </x:sheets>
 </x:workbook>
 </file>
